--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D387A4-6D77-4600-8E5A-C9AF5E58BF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="1560" yWindow="120" windowWidth="14655" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -14,12 +20,11 @@
     <sheet name="PhanQuyen" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="243">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -774,12 +779,18 @@
   <si>
     <t>DOING</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>KMCH -&gt; Ko thêm được, ko xóa được</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,7 +927,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,6 +997,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1304,112 +1327,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
@@ -1418,6 +1335,114 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,7 +1487,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1531,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1575,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1619,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1663,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1707,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1751,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1795,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1839,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1883,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,7 +1927,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1971,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +2015,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,14 +2299,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -2289,22 +2314,22 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="139.109375" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="32"/>
+    <col min="1" max="1" width="6.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="139.140625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="58.95" customHeight="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2315,7 +2340,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.95" customHeight="1">
+    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
@@ -2338,7 +2363,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="75" t="s">
         <v>27</v>
       </c>
@@ -2346,7 +2371,7 @@
       <c r="C3" s="75"/>
       <c r="D3" s="75"/>
     </row>
-    <row r="4" spans="1:13" ht="24.6" customHeight="1">
+    <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -2359,14 +2384,14 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A5" s="64">
+    <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
       <c r="B5" s="63" t="s">
@@ -2379,8 +2404,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A6" s="64"/>
+    <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
       <c r="B6" s="63"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
@@ -2388,14 +2413,14 @@
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A7" s="64"/>
+    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79"/>
       <c r="B7" s="63"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
@@ -2404,8 +2429,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A8" s="64"/>
+    <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
       <c r="B8" s="63"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
@@ -2414,8 +2439,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A9" s="64"/>
+    <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
       <c r="B9" s="63"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
@@ -2424,8 +2449,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A10" s="64"/>
+    <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
       <c r="B10" s="63"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
@@ -2434,8 +2459,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A11" s="64"/>
+    <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="79"/>
       <c r="B11" s="63"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
@@ -2444,7 +2469,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24.6" customHeight="1">
+    <row r="12" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -2458,140 +2483,140 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="73" t="s">
+    <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
+      <c r="B13" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
+    <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="67"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="77"/>
     </row>
-    <row r="15" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A15" s="64">
+    <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79">
         <v>4</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24.6" customHeight="1">
-      <c r="A16" s="64"/>
+    <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="79"/>
       <c r="B16" s="63"/>
       <c r="C16" s="78"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A17" s="64"/>
+    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="79"/>
       <c r="B17" s="63"/>
-      <c r="C17" s="74"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A18" s="62">
+    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86">
         <v>5</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="66"/>
+    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="66"/>
+    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="67"/>
+    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A22" s="81">
+    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="68">
         <v>6</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="69"/>
+    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
+    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="69"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="69"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A28" s="62">
+    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="86">
         <v>7</v>
       </c>
       <c r="B28" s="63" t="s">
@@ -2602,25 +2627,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A29" s="62"/>
+    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="86"/>
       <c r="B29" s="63"/>
       <c r="C29" s="63"/>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A30" s="62"/>
+    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="86"/>
       <c r="B30" s="63"/>
       <c r="C30" s="63"/>
       <c r="D30" s="44"/>
     </row>
-    <row r="31" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A31" s="62"/>
+    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
       <c r="D31" s="44"/>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1">
+    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>8</v>
       </c>
@@ -2632,7 +2657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.6" customHeight="1">
+    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>9</v>
       </c>
@@ -2644,7 +2669,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24.6" customHeight="1">
+    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>10</v>
       </c>
@@ -2656,7 +2681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1">
+    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>11</v>
       </c>
@@ -2668,7 +2693,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1">
+    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>12</v>
       </c>
@@ -2680,21 +2705,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="58" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>1</v>
       </c>
@@ -2706,7 +2731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>2</v>
       </c>
@@ -2718,7 +2743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -2730,7 +2755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>4</v>
       </c>
@@ -2742,7 +2767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="38.25" customHeight="1">
+    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>5</v>
       </c>
@@ -2754,31 +2779,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="58" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60"/>
-    </row>
-    <row r="47" spans="1:4" ht="37.5" customHeight="1">
-      <c r="A47" s="62">
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="84"/>
+    </row>
+    <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="86">
         <v>1</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2786,73 +2811,73 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="62"/>
-      <c r="B48" s="61"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="86"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="62"/>
-      <c r="B49" s="61"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="62"/>
-      <c r="B50" s="61"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="86"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="62"/>
-      <c r="B51" s="61"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="86"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="62"/>
-      <c r="B52" s="61"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="86"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="61"/>
+    <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="86"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.95" customHeight="1">
+    <row r="54" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="58" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="60"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="62">
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="84"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="86">
         <v>1</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2860,53 +2885,53 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="62"/>
-      <c r="B57" s="61"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="86"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="62"/>
-      <c r="B58" s="61"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="86"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="62"/>
-      <c r="B59" s="61"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="86"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="62"/>
-      <c r="B60" s="61"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="86"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="62"/>
-      <c r="B61" s="61"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="86"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -2914,19 +2939,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -2943,6 +2955,19 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2950,7 +2975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A142"/>
   <sheetViews>
@@ -2958,74 +2983,74 @@
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="23" customFormat="1">
+    <row r="21" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="6" customFormat="1">
+    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
     </row>
-    <row r="41" spans="1:1" s="23" customFormat="1">
+    <row r="41" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="23" customFormat="1">
+    <row r="61" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="23" customFormat="1">
+    <row r="81" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="23" customFormat="1">
+    <row r="101" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="23" customFormat="1">
+    <row r="121" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:1" s="23" customFormat="1">
+    <row r="141" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
         <v>100</v>
       </c>
@@ -3038,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3046,16 +3071,16 @@
       <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="43.33203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="26"/>
+    <col min="2" max="2" width="43.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
@@ -3072,7 +3097,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -3089,7 +3114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -3106,7 +3131,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -3123,7 +3148,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1">
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -3140,7 +3165,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1">
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -3157,7 +3182,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1">
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -3174,7 +3199,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1">
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -3191,7 +3216,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1">
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -3208,7 +3233,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1">
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -3225,7 +3250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1">
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -3242,7 +3267,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -3259,7 +3284,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1">
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -3276,7 +3301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1">
+    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -3293,7 +3318,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1">
+    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -3302,7 +3327,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1">
+    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -3311,7 +3336,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1">
+    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -3320,7 +3345,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1">
+    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -3329,7 +3354,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1">
+    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -3345,28 +3370,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -3377,14 +3402,14 @@
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1">
-      <c r="A4" s="85" t="s">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -3392,97 +3417,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="67.5" customHeight="1">
+    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="94" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="87"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.8">
+      <c r="C7" s="94"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="87"/>
-    </row>
-    <row r="9" spans="1:12" ht="43.2">
+      <c r="C8" s="94"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="87"/>
-    </row>
-    <row r="11" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A11" s="85" t="s">
+      <c r="C9" s="94"/>
+    </row>
+    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.8">
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="94" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="87"/>
-    </row>
-    <row r="15" spans="1:12" ht="66.75" customHeight="1">
+      <c r="C14" s="94"/>
+    </row>
+    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="87"/>
-    </row>
-    <row r="16" spans="1:12" ht="43.2">
+      <c r="C15" s="94"/>
+    </row>
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="87"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1">
-      <c r="A18" s="85" t="s">
+      <c r="C16" s="94"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3490,52 +3515,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.2">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="94" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="87"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.8">
+      <c r="C21" s="94"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="87"/>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1">
+      <c r="C22" s="94"/>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="87"/>
-    </row>
-    <row r="25" spans="1:4" ht="45" customHeight="1">
-      <c r="A25" s="85" t="s">
+      <c r="C23" s="94"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -3543,58 +3568,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="D29" s="59" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-    </row>
-    <row r="33" spans="1:6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="56" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="57" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="57" t="s">
         <v>216</v>
       </c>
       <c r="D35" t="s">
@@ -3604,11 +3629,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="57" t="s">
         <v>217</v>
       </c>
       <c r="D36" t="s">
@@ -3621,11 +3646,11 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="61" t="s">
         <v>218</v>
       </c>
       <c r="D37" t="s">
@@ -3638,80 +3663,94 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="57" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="C38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="60" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="62" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="56" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="55" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="C43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="C47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>237</v>
       </c>
       <c r="C48" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3732,28 +3771,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D76"/>
   <sheetViews>
     <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="112" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3764,23 +3803,23 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -3794,7 +3833,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -3808,7 +3847,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>155</v>
       </c>
@@ -3819,7 +3858,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3830,7 +3869,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3841,7 +3880,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3852,14 +3891,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="88" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3870,17 +3909,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="49.5" customHeight="1">
+    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" customHeight="1">
+    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3891,7 +3930,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3902,7 +3941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3916,7 +3955,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3927,14 +3966,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="88" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3945,17 +3984,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>2</v>
       </c>
@@ -3967,7 +4006,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>172</v>
       </c>
@@ -3978,7 +4017,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>173</v>
       </c>
@@ -3989,7 +4028,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>181</v>
       </c>
@@ -3997,7 +4036,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>182</v>
       </c>
@@ -4005,7 +4044,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4013,7 +4052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.2">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>173</v>
       </c>
@@ -4021,7 +4060,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>190</v>
       </c>
@@ -4029,7 +4068,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4037,7 +4076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
         <v>157</v>
       </c>
@@ -4045,7 +4084,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>193</v>
       </c>
@@ -4053,7 +4092,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4061,7 +4100,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>172</v>
       </c>
@@ -4069,7 +4108,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>173</v>
       </c>
@@ -4077,7 +4116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4085,7 +4124,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>177</v>
       </c>
@@ -4093,7 +4132,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>178</v>
       </c>
@@ -4101,14 +4140,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="88" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -4120,7 +4159,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
@@ -4128,7 +4167,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
@@ -4136,7 +4175,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>2</v>
       </c>
@@ -4148,7 +4187,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>172</v>
@@ -4158,7 +4197,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="28.8">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
         <v>173</v>
@@ -4170,7 +4209,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>181</v>
@@ -4180,7 +4219,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>182</v>
@@ -4190,13 +4229,13 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -4206,7 +4245,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="28.8">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="52" t="s">
         <v>173</v>
@@ -4218,7 +4257,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>190</v>
@@ -4228,13 +4267,13 @@
       </c>
       <c r="D60" s="53"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="53"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>4</v>
       </c>
@@ -4244,7 +4283,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="53"/>
     </row>
-    <row r="63" spans="1:4" ht="28.8">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="28" t="s">
         <v>157</v>
@@ -4252,11 +4291,11 @@
       <c r="C63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="90" t="s">
+      <c r="D63" s="97" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>193</v>
@@ -4264,15 +4303,15 @@
       <c r="C64" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="90"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" s="97"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="53"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>5</v>
       </c>
@@ -4282,7 +4321,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="53"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>196</v>
@@ -4290,11 +4329,11 @@
       <c r="C67" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="90" t="s">
+      <c r="D67" s="97" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" t="s">
         <v>168</v>
@@ -4302,9 +4341,9 @@
       <c r="C68" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="90"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68" s="97"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>172</v>
@@ -4312,21 +4351,21 @@
       <c r="C69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="90"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="97"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="90"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="97"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>6</v>
       </c>
@@ -4336,15 +4375,15 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="52"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="89" t="s">
+      <c r="D73" s="96" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" t="s">
         <v>198</v>
@@ -4352,25 +4391,25 @@
       <c r="C74" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D74" s="89"/>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="96"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="89"/>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="D75" s="96"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>178</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="89"/>
+      <c r="D76" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D387A4-6D77-4600-8E5A-C9AF5E58BF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CEA568-85E0-4F7D-8A75-5246DF860345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="120" windowWidth="14655" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="245">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -784,6 +784,12 @@
   </si>
   <si>
     <t>KMCH -&gt; Ko thêm được, ko xóa được</t>
+  </si>
+  <si>
+    <t>chưa apply api</t>
+  </si>
+  <si>
+    <t>T fix</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,16 +1344,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,66 +1425,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1444,6 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2324,12 +2330,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2364,12 +2370,12 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -2384,17 +2390,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79">
+      <c r="A5" s="70">
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="69" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2405,23 +2411,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2430,8 +2436,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2440,8 +2446,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2450,8 +2456,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2460,8 +2466,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2484,165 +2490,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="82" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="77"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="79">
+      <c r="A15" s="70">
         <v>4</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86">
+      <c r="A18" s="68">
         <v>5</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="88"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="88"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="89"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68">
+      <c r="A22" s="87">
         <v>6</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86">
+      <c r="A28" s="68">
         <v>7</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2712,12 +2718,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2792,18 +2798,18 @@
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="86">
+      <c r="A47" s="68">
         <v>1</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="67" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2812,48 +2818,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="86"/>
-      <c r="B48" s="85"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="67"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="85"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="67"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="85"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="86"/>
-      <c r="B51" s="85"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="85"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="67"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="86"/>
-      <c r="B53" s="85"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="67"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
@@ -2866,18 +2872,18 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="84"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="66"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="86">
+      <c r="A56" s="68">
         <v>1</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="67" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2886,40 +2892,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="86"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="86"/>
-      <c r="B58" s="85"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="67"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="86"/>
-      <c r="B59" s="85"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
-      <c r="B60" s="85"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="86"/>
-      <c r="B61" s="85"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="67"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
@@ -2939,6 +2945,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -2955,19 +2974,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3375,7 +3381,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,11 +3393,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -3403,11 +3409,11 @@
       <c r="L1" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -3424,7 +3430,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3435,7 +3441,7 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="93"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -3444,7 +3450,7 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="94"/>
+      <c r="C8" s="93"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -3453,14 +3459,14 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="93"/>
     </row>
     <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3469,7 +3475,7 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3480,7 +3486,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="94"/>
+      <c r="C14" s="93"/>
     </row>
     <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3489,7 +3495,7 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="94"/>
+      <c r="C15" s="93"/>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3498,14 +3504,14 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="94"/>
+      <c r="C16" s="93"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -3522,7 +3528,7 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="93" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3533,7 +3539,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="94"/>
+      <c r="C21" s="93"/>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3542,7 +3548,7 @@
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="94"/>
+      <c r="C22" s="93"/>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3551,14 +3557,14 @@
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="94"/>
+      <c r="C23" s="93"/>
     </row>
     <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -3595,9 +3601,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3611,7 +3617,7 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="56" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3619,7 +3625,7 @@
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="56" t="s">
         <v>216</v>
       </c>
       <c r="D35" t="s">
@@ -3633,7 +3639,7 @@
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="56" t="s">
         <v>217</v>
       </c>
       <c r="D36" t="s">
@@ -3653,6 +3659,9 @@
       <c r="B37" s="61" t="s">
         <v>218</v>
       </c>
+      <c r="C37" t="s">
+        <v>243</v>
+      </c>
       <c r="D37" t="s">
         <v>227</v>
       </c>
@@ -3686,7 +3695,7 @@
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="56" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3710,7 +3719,7 @@
       <c r="A43">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="97" t="s">
         <v>233</v>
       </c>
       <c r="C43" t="s">
@@ -3718,7 +3727,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="57" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3728,16 +3737,16 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="56" t="s">
         <v>235</v>
       </c>
+      <c r="C46" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="B47" s="57" t="s">
         <v>236</v>
-      </c>
-      <c r="C47" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3786,11 +3795,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3892,11 +3901,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3967,11 +3976,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4141,11 +4150,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="95" t="s">
+      <c r="A48" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -4291,7 +4300,7 @@
       <c r="C63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="97" t="s">
+      <c r="D63" s="96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4303,7 +4312,7 @@
       <c r="C64" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="97"/>
+      <c r="D64" s="96"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
@@ -4329,7 +4338,7 @@
       <c r="C67" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="97" t="s">
+      <c r="D67" s="96" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4341,7 +4350,7 @@
       <c r="C68" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="97"/>
+      <c r="D68" s="96"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
@@ -4351,7 +4360,7 @@
       <c r="C69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="97"/>
+      <c r="D69" s="96"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
@@ -4360,7 +4369,7 @@
       <c r="C70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="97"/>
+      <c r="D70" s="96"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
@@ -4379,7 +4388,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="52"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="96" t="s">
+      <c r="D73" s="95" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4391,7 +4400,7 @@
       <c r="C74" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D74" s="96"/>
+      <c r="D74" s="95"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
@@ -4400,7 +4409,7 @@
       <c r="C75" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="96"/>
+      <c r="D75" s="95"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
@@ -4409,7 +4418,7 @@
       <c r="C76" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="96"/>
+      <c r="D76" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CEA568-85E0-4F7D-8A75-5246DF860345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF28B1-988F-4BC4-895F-B1D1259BD018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="246">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>T fix</t>
+  </si>
+  <si>
+    <t>Cửa hàng sẽ được chỉnh sửa thời gian bắt đầu và kết thúc, chỉnh sửa được hình ảnh</t>
   </si>
 </sst>
 </file>
@@ -1344,6 +1347,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,12 +1420,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1380,51 +1429,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1449,7 +1453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2330,12 +2333,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2370,12 +2373,12 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -2390,17 +2393,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2411,23 +2414,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2436,8 +2439,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2446,8 +2449,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2456,8 +2459,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2466,8 +2469,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2490,165 +2493,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
-      <c r="B13" s="79" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="82" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="83"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70">
+      <c r="A15" s="79">
         <v>4</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="84"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="80"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68">
+      <c r="A18" s="86">
         <v>5</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="71"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="72"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="68"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="73"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87">
+      <c r="A22" s="68">
         <v>6</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="88"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="68">
+      <c r="A28" s="86">
         <v>7</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2718,12 +2721,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="64" t="s">
+      <c r="A38" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2798,18 +2801,18 @@
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="84"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68">
+      <c r="A47" s="86">
         <v>1</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2818,48 +2821,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
-      <c r="B48" s="67"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="68"/>
-      <c r="B49" s="67"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="68"/>
-      <c r="B50" s="67"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="68"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="68"/>
-      <c r="B52" s="67"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="68"/>
-      <c r="B53" s="67"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
@@ -2872,18 +2875,18 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="64" t="s">
+      <c r="A55" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="66"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="84"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="68">
+      <c r="A56" s="86">
         <v>1</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2892,40 +2895,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="68"/>
-      <c r="B57" s="67"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="68"/>
-      <c r="B58" s="67"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="68"/>
-      <c r="B59" s="67"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="68"/>
-      <c r="B60" s="67"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="68"/>
-      <c r="B61" s="67"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
@@ -2945,19 +2948,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -2974,6 +2964,19 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3378,10 +3381,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,11 +3396,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -3409,11 +3412,11 @@
       <c r="L1" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -3430,7 +3433,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3441,7 +3444,7 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="94"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -3450,7 +3453,7 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="93"/>
+      <c r="C8" s="94"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -3459,14 +3462,14 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="94"/>
     </row>
     <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3475,7 +3478,7 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3486,7 +3489,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="93"/>
+      <c r="C14" s="94"/>
     </row>
     <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3495,7 +3498,7 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="93"/>
+      <c r="C15" s="94"/>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3504,14 +3507,14 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="93"/>
+      <c r="C16" s="94"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -3528,7 +3531,7 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="94" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3539,7 +3542,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="93"/>
+      <c r="C21" s="94"/>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3548,7 +3551,7 @@
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="93"/>
+      <c r="C22" s="94"/>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3557,14 +3560,14 @@
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="93"/>
+      <c r="C23" s="94"/>
     </row>
     <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -3601,9 +3604,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3719,7 +3722,7 @@
       <c r="A43">
         <v>11</v>
       </c>
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="62" t="s">
         <v>233</v>
       </c>
       <c r="C43" t="s">
@@ -3760,6 +3763,11 @@
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3795,11 +3803,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3901,11 +3909,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3976,11 +3984,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4150,11 +4158,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -4300,7 +4308,7 @@
       <c r="C63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="96" t="s">
+      <c r="D63" s="97" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4312,7 +4320,7 @@
       <c r="C64" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="96"/>
+      <c r="D64" s="97"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
@@ -4338,7 +4346,7 @@
       <c r="C67" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="96" t="s">
+      <c r="D67" s="97" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4350,7 +4358,7 @@
       <c r="C68" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="96"/>
+      <c r="D68" s="97"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
@@ -4360,7 +4368,7 @@
       <c r="C69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="96"/>
+      <c r="D69" s="97"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
@@ -4369,7 +4377,7 @@
       <c r="C70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="96"/>
+      <c r="D70" s="97"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
@@ -4388,7 +4396,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="52"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="95" t="s">
+      <c r="D73" s="96" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4400,7 +4408,7 @@
       <c r="C74" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D74" s="95"/>
+      <c r="D74" s="96"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
@@ -4409,7 +4417,7 @@
       <c r="C75" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="95"/>
+      <c r="D75" s="96"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
@@ -4418,7 +4426,7 @@
       <c r="C76" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="95"/>
+      <c r="D76" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DF28B1-988F-4BC4-895F-B1D1259BD018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557C171C-1C8E-48AD-934B-D99455413A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="120" windowWidth="14655" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="247">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t>Cửa hàng sẽ được chỉnh sửa thời gian bắt đầu và kết thúc, chỉnh sửa được hình ảnh</t>
+  </si>
+  <si>
+    <t>?Admin chỉ được quyền xem khuyến mãi cửa hàng hay có thể thêm, xóa KMCH</t>
   </si>
 </sst>
 </file>
@@ -1348,15 +1351,75 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,66 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2333,12 +2336,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2373,12 +2376,12 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -2393,17 +2396,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79">
+      <c r="A5" s="71">
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2414,23 +2417,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2439,8 +2442,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2449,8 +2452,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2459,8 +2462,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2469,8 +2472,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2493,165 +2496,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="83" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="77"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="79">
+      <c r="A15" s="71">
         <v>4</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86">
+      <c r="A18" s="69">
         <v>5</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="88"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="88"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="89"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68">
+      <c r="A22" s="88">
         <v>6</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86">
+      <c r="A28" s="69">
         <v>7</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2721,12 +2724,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2801,18 +2804,18 @@
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="86">
+      <c r="A47" s="69">
         <v>1</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2821,48 +2824,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="86"/>
-      <c r="B48" s="85"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="85"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="85"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="86"/>
-      <c r="B51" s="85"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="85"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="86"/>
-      <c r="B53" s="85"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
@@ -2875,18 +2878,18 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="84"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="86">
+      <c r="A56" s="69">
         <v>1</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2895,40 +2898,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="86"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="68"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="86"/>
-      <c r="B58" s="85"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="86"/>
-      <c r="B59" s="85"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
-      <c r="B60" s="85"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="86"/>
-      <c r="B61" s="85"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
@@ -2948,6 +2951,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -2964,19 +2980,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3381,10 +3384,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,6 +3771,11 @@
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557C171C-1C8E-48AD-934B-D99455413A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD45B2E-E9EC-4DBD-95B5-50FFB0E51206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="120" windowWidth="14655" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="249">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -796,6 +796,13 @@
   </si>
   <si>
     <t>?Admin chỉ được quyền xem khuyến mãi cửa hàng hay có thể thêm, xóa KMCH</t>
+  </si>
+  <si>
+    <t>?Table Địa chỉ phải có trước hay như thế nào. 
+Vì khi thêm cửa hàng thì bắt buộc phải có địa chỉ. Vậy table địa chỉ phải đc tích hợp API google map có sẵn. Để khi thêm cửa hàng, thuộc tính ô địa chỉ, mình nhập thì nó sẽ tự động hiển thị</t>
+  </si>
+  <si>
+    <t>Việc thêm các danh mục ở DMCH hôm nay, trang chủ, loại món ăn phải có tác động đến App. App có sự thay đổi</t>
   </si>
 </sst>
 </file>
@@ -1351,6 +1358,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1372,12 +1430,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1386,51 +1438,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2336,12 +2343,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2376,12 +2383,12 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -2396,17 +2403,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71">
+      <c r="A5" s="79">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2417,23 +2424,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="70"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2442,8 +2449,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2452,8 +2459,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2462,8 +2469,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2472,8 +2479,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2496,165 +2503,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="80" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="83" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="84"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71">
+      <c r="A15" s="79">
         <v>4</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="80"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="81"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69">
+      <c r="A18" s="86">
         <v>5</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="73"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="73"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88">
+      <c r="A22" s="68">
         <v>6</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="69">
+      <c r="A28" s="86">
         <v>7</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2724,12 +2731,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2804,18 +2811,18 @@
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="84"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="69">
+      <c r="A47" s="86">
         <v>1</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2824,48 +2831,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="68"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="85"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="68"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="85"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="68"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
-      <c r="B52" s="68"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="68"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
@@ -2878,18 +2885,18 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="84"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="69">
+      <c r="A56" s="86">
         <v>1</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2898,40 +2905,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="69"/>
-      <c r="B57" s="68"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="69"/>
-      <c r="B58" s="68"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="68"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
-      <c r="B60" s="68"/>
+      <c r="A60" s="86"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="69"/>
-      <c r="B61" s="68"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
@@ -2951,19 +2958,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -2980,6 +2974,19 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3384,10 +3391,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3776,6 +3783,16 @@
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD45B2E-E9EC-4DBD-95B5-50FFB0E51206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5967AD9D-6299-466C-949D-AA5C8FC562BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="255">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -789,9 +789,6 @@
     <t>chưa apply api</t>
   </si>
   <si>
-    <t>T fix</t>
-  </si>
-  <si>
     <t>Cửa hàng sẽ được chỉnh sửa thời gian bắt đầu và kết thúc, chỉnh sửa được hình ảnh</t>
   </si>
   <si>
@@ -803,6 +800,27 @@
   </si>
   <si>
     <t>Việc thêm các danh mục ở DMCH hôm nay, trang chủ, loại món ăn phải có tác động đến App. App có sự thay đổi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin click TTCH -&gt;Ttin Tài khoản CH đó </t>
+  </si>
+  <si>
+    <t>Tất cả là table</t>
+  </si>
+  <si>
+    <t>Gợi ý địa chỉ, ko có thì chọn button tìm trên đó</t>
+  </si>
+  <si>
+    <t>bấm vào CH lúc mới thêm -&gt; TT tài khoản</t>
+  </si>
+  <si>
+    <t>đi ngược</t>
+  </si>
+  <si>
+    <t>Danh mục cửa hàng trang chủ : load các cửa hàng trong danh mục của modal,  thêm xóa cửa hàng trong danh mục checkbox</t>
+  </si>
+  <si>
+    <t>DM_loaimonan 8icon  -&gt; Hiển thị tab: icon tên trong từng tab. Chọn tab đó -&gt; hiển thị CH đó</t>
   </si>
 </sst>
 </file>
@@ -946,7 +964,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,6 +1046,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1358,15 +1382,75 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,66 +1463,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1463,6 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2343,12 +2368,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2383,12 +2408,12 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -2403,17 +2428,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79">
+      <c r="A5" s="71">
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2424,23 +2449,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2449,8 +2474,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2459,8 +2484,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2469,8 +2494,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2479,8 +2504,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2503,165 +2528,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="76" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="83" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="77"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="84"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="79">
+      <c r="A15" s="71">
         <v>4</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86">
+      <c r="A18" s="69">
         <v>5</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="88"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="88"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="89"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68">
+      <c r="A22" s="88">
         <v>6</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86">
+      <c r="A28" s="69">
         <v>7</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2731,12 +2756,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2811,18 +2836,18 @@
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="86">
+      <c r="A47" s="69">
         <v>1</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2831,48 +2856,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="86"/>
-      <c r="B48" s="85"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="85"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="85"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="86"/>
-      <c r="B51" s="85"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="85"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="86"/>
-      <c r="B53" s="85"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
@@ -2885,18 +2910,18 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="84"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="86">
+      <c r="A56" s="69">
         <v>1</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2905,40 +2930,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="86"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="68"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="86"/>
-      <c r="B58" s="85"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="68"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="86"/>
-      <c r="B59" s="85"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
-      <c r="B60" s="85"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="68"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="86"/>
-      <c r="B61" s="85"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="68"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
@@ -2958,6 +2983,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -2974,19 +3012,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3391,10 +3416,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,11 +3761,11 @@
         <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="56" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3753,13 +3778,13 @@
       <c r="B46" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="C46" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="62" t="s">
         <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3770,29 +3795,52 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="60" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="53" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="C53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="98" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5967AD9D-6299-466C-949D-AA5C8FC562BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA191EA-BDE7-40D5-9EEA-735ACB360007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1382,6 +1382,58 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1403,12 +1455,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1418,51 +1464,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1487,7 +1488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2368,12 +2368,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2408,12 +2408,12 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -2428,17 +2428,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71">
+      <c r="A5" s="80">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="64" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2449,23 +2449,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="70"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="70"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2474,8 +2474,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="70"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2484,8 +2484,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2494,8 +2494,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2504,8 +2504,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2528,165 +2528,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="80" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="83" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="77" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="84"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71">
+      <c r="A15" s="80">
         <v>4</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="80"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="81"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69">
+      <c r="A18" s="87">
         <v>5</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="72"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="73"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="73"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="74"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88">
+      <c r="A22" s="69">
         <v>6</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="89"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="69">
+      <c r="A28" s="87">
         <v>7</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2756,12 +2756,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2836,18 +2836,18 @@
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="69">
+      <c r="A47" s="87">
         <v>1</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="86" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2856,48 +2856,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="68"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="68"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
-      <c r="B50" s="68"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="68"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
-      <c r="B52" s="68"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="68"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="86"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
@@ -2910,18 +2910,18 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="85"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="69">
+      <c r="A56" s="87">
         <v>1</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="86" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2930,40 +2930,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="69"/>
-      <c r="B57" s="68"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="86"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="69"/>
-      <c r="B58" s="68"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="69"/>
-      <c r="B59" s="68"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="86"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
-      <c r="B60" s="68"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="69"/>
-      <c r="B61" s="68"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
@@ -2983,19 +2983,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -3012,6 +2999,19 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3419,7 +3419,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,11 +3431,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -3447,11 +3447,11 @@
       <c r="L1" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -3468,7 +3468,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="95" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="95"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -3488,7 +3488,7 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="94"/>
+      <c r="C8" s="95"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -3497,14 +3497,14 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="95"/>
     </row>
     <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3513,7 +3513,7 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="95" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="94"/>
+      <c r="C14" s="95"/>
     </row>
     <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3533,7 +3533,7 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="94"/>
+      <c r="C15" s="95"/>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3542,14 +3542,14 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="94"/>
+      <c r="C16" s="95"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -3566,7 +3566,7 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="95" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="94"/>
+      <c r="C21" s="95"/>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3586,7 +3586,7 @@
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="94"/>
+      <c r="C22" s="95"/>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3595,14 +3595,14 @@
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="94"/>
+      <c r="C23" s="95"/>
     </row>
     <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -3639,9 +3639,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="63" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3876,11 +3876,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3982,11 +3982,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4057,11 +4057,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4231,11 +4231,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="95" t="s">
+      <c r="A48" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -4381,7 +4381,7 @@
       <c r="C63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="97" t="s">
+      <c r="D63" s="98" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       <c r="C64" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="97"/>
+      <c r="D64" s="98"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
@@ -4419,7 +4419,7 @@
       <c r="C67" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="97" t="s">
+      <c r="D67" s="98" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
       <c r="C68" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="97"/>
+      <c r="D68" s="98"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
@@ -4441,7 +4441,7 @@
       <c r="C69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="97"/>
+      <c r="D69" s="98"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
@@ -4450,7 +4450,7 @@
       <c r="C70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="97"/>
+      <c r="D70" s="98"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
@@ -4469,7 +4469,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="52"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="96" t="s">
+      <c r="D73" s="97" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       <c r="C74" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D74" s="96"/>
+      <c r="D74" s="97"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
@@ -4490,7 +4490,7 @@
       <c r="C75" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="96"/>
+      <c r="D75" s="97"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
@@ -4499,7 +4499,7 @@
       <c r="C76" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="96"/>
+      <c r="D76" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA191EA-BDE7-40D5-9EEA-735ACB360007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -826,7 +820,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1383,15 +1377,75 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,66 +1457,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1531,7 +1525,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1569,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1613,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1657,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1701,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1745,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1789,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1833,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1877,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1921,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1965,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2009,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2053,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,14 +2337,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -2358,22 +2352,22 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="139.140625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="139.109375" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:13" ht="58.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2384,7 +2378,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
@@ -2407,15 +2401,15 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -2428,17 +2422,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80">
+    <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="71" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2448,24 +2442,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="72"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
-      <c r="B7" s="64"/>
+    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="72"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2473,9 +2467,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="72"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2483,9 +2477,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="64"/>
+    <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="72"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2493,9 +2487,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2503,9 +2497,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="64"/>
+    <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2513,7 +2507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -2527,169 +2521,169 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="65" t="s">
+    <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="87"/>
+      <c r="B13" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="77" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="78"/>
-    </row>
-    <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80">
+    <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="88"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="72">
         <v>4</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="79"/>
+    <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="72"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="66"/>
+    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87">
+    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="70">
         <v>5</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="88"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="87"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="89"/>
+    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="89"/>
+    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="70"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="90"/>
+    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="70"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="69">
+    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="89">
         <v>6</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="90"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="90"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="70"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="90"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
+    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="90"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="90"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87">
+    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="70">
         <v>7</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
+    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="44"/>
     </row>
-    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="44"/>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>8</v>
       </c>
@@ -2701,7 +2695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>9</v>
       </c>
@@ -2713,7 +2707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>10</v>
       </c>
@@ -2725,7 +2719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
         <v>11</v>
       </c>
@@ -2737,7 +2731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
         <v>12</v>
       </c>
@@ -2749,21 +2743,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="83" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>1</v>
       </c>
@@ -2775,7 +2769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>2</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -2799,7 +2793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>4</v>
       </c>
@@ -2811,7 +2805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>5</v>
       </c>
@@ -2823,31 +2817,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="83" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-    </row>
-    <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="87">
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+    </row>
+    <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="70">
         <v>1</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2855,73 +2849,73 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="86"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="70"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
-      <c r="B49" s="86"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="70"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
-      <c r="B50" s="86"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="70"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="87"/>
-      <c r="B51" s="86"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="70"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="87"/>
-      <c r="B52" s="86"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="70"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="87"/>
-      <c r="B53" s="86"/>
+    <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="70"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="83" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="85"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="87">
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="70">
         <v>1</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2929,53 +2923,53 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="87"/>
-      <c r="B57" s="86"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="70"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="87"/>
-      <c r="B58" s="86"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="70"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="87"/>
-      <c r="B59" s="86"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="70"/>
+      <c r="B59" s="69"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="87"/>
-      <c r="B60" s="86"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="70"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="87"/>
-      <c r="B61" s="86"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="70"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -2983,6 +2977,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -2999,19 +3006,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3019,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A142"/>
   <sheetViews>
@@ -3027,74 +3021,74 @@
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
     </row>
-    <row r="41" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="22"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="22"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="20" t="s">
         <v>100</v>
       </c>
@@ -3107,7 +3101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3115,16 +3109,16 @@
       <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="26"/>
-    <col min="2" max="2" width="43.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="43.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="6" customWidth="1"/>
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
@@ -3141,7 +3135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -3158,7 +3152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -3192,7 +3186,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -3209,7 +3203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -3226,7 +3220,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -3243,7 +3237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -3260,7 +3254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -3294,7 +3288,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -3311,7 +3305,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -3328,7 +3322,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -3345,7 +3339,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -3371,7 +3365,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -3380,7 +3374,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -3389,7 +3383,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -3398,7 +3392,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -3414,23 +3408,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
@@ -3446,14 +3440,14 @@
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="94"/>
       <c r="C4" s="94"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -3461,7 +3455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3475,7 @@
       </c>
       <c r="C7" s="95"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +3484,7 @@
       </c>
       <c r="C8" s="95"/>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -3499,14 +3493,14 @@
       </c>
       <c r="C9" s="95"/>
     </row>
-    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -3526,7 +3520,7 @@
       </c>
       <c r="C14" s="95"/>
     </row>
-    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -3535,7 +3529,7 @@
       </c>
       <c r="C15" s="95"/>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -3544,14 +3538,14 @@
       </c>
       <c r="C16" s="95"/>
     </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3559,7 +3553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3579,7 +3573,7 @@
       </c>
       <c r="C21" s="95"/>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3582,7 @@
       </c>
       <c r="C22" s="95"/>
     </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -3597,14 +3591,14 @@
       </c>
       <c r="C23" s="95"/>
     </row>
-    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -3612,17 +3606,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -3633,17 +3627,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
       <c r="B32" s="91"/>
       <c r="C32" s="91"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3651,7 +3645,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3659,7 +3653,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3673,7 +3667,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3690,7 +3684,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -3710,7 +3704,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
@@ -3721,7 +3715,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7</v>
       </c>
@@ -3729,7 +3723,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3737,7 +3731,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9</v>
       </c>
@@ -3745,7 +3739,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10</v>
       </c>
@@ -3753,7 +3747,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>11</v>
       </c>
@@ -3764,30 +3758,30 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="62" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="56" t="s">
         <v>236</v>
       </c>
       <c r="C47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>237</v>
       </c>
@@ -3795,22 +3789,22 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="60" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
@@ -3818,27 +3812,27 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="62" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="63" t="s">
         <v>254</v>
       </c>
@@ -3861,28 +3855,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D76"/>
   <sheetViews>
     <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="112" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3893,23 +3887,23 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -3937,7 +3931,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>155</v>
       </c>
@@ -3948,7 +3942,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3959,7 +3953,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3970,7 +3964,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3981,14 +3975,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="96" t="s">
         <v>161</v>
       </c>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3999,17 +3993,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4020,7 +4014,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4031,7 +4025,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4045,7 +4039,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4056,14 +4050,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="96" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4074,17 +4068,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="54">
         <v>2</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>172</v>
       </c>
@@ -4107,7 +4101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>173</v>
       </c>
@@ -4118,7 +4112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>181</v>
       </c>
@@ -4126,7 +4120,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>182</v>
       </c>
@@ -4134,7 +4128,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4142,7 +4136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="52" t="s">
         <v>173</v>
       </c>
@@ -4150,7 +4144,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>190</v>
       </c>
@@ -4158,7 +4152,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4166,7 +4160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="28" t="s">
         <v>157</v>
       </c>
@@ -4174,7 +4168,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>193</v>
       </c>
@@ -4182,7 +4176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4190,7 +4184,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>172</v>
       </c>
@@ -4198,7 +4192,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>173</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4214,7 +4208,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>177</v>
       </c>
@@ -4222,7 +4216,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>178</v>
       </c>
@@ -4230,14 +4224,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="96" t="s">
         <v>196</v>
       </c>
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -4249,7 +4243,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
@@ -4257,7 +4251,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
@@ -4265,7 +4259,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="54">
         <v>2</v>
       </c>
@@ -4277,7 +4271,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>172</v>
@@ -4287,7 +4281,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
         <v>173</v>
@@ -4299,7 +4293,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>181</v>
@@ -4309,7 +4303,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>182</v>
@@ -4319,13 +4313,13 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -4335,7 +4329,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="52" t="s">
         <v>173</v>
@@ -4347,7 +4341,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>190</v>
@@ -4357,13 +4351,13 @@
       </c>
       <c r="D60" s="53"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="53"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>4</v>
       </c>
@@ -4373,7 +4367,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="53"/>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="28" t="s">
         <v>157</v>
@@ -4385,7 +4379,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>193</v>
@@ -4395,13 +4389,13 @@
       </c>
       <c r="D64" s="98"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="53"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>5</v>
       </c>
@@ -4411,7 +4405,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="53"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>196</v>
@@ -4423,7 +4417,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" t="s">
         <v>168</v>
@@ -4433,7 +4427,7 @@
       </c>
       <c r="D68" s="98"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>172</v>
@@ -4443,7 +4437,7 @@
       </c>
       <c r="D69" s="98"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>173</v>
       </c>
@@ -4452,10 +4446,10 @@
       </c>
       <c r="D70" s="98"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>6</v>
       </c>
@@ -4465,7 +4459,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="52"/>
       <c r="C73" s="1"/>
@@ -4473,7 +4467,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" t="s">
         <v>198</v>
@@ -4483,7 +4477,7 @@
       </c>
       <c r="D74" s="97"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" s="6" t="s">
         <v>177</v>
       </c>
@@ -4492,7 +4486,7 @@
       </c>
       <c r="D75" s="97"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
         <v>178</v>
       </c>

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -1377,6 +1377,57 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1398,12 +1449,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1412,51 +1457,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1525,7 +1525,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1569,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1613,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1657,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1701,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1745,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1789,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1833,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1877,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1921,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1965,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2053,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2362,12 +2362,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2402,12 +2402,12 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
@@ -2422,17 +2422,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="72">
+      <c r="A5" s="80">
         <v>2</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="64" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2443,23 +2443,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2468,8 +2468,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2478,8 +2478,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2488,8 +2488,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2498,8 +2498,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2522,165 +2522,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="84" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="77" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="88"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="72">
+      <c r="A15" s="80">
         <v>4</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="70">
+      <c r="A18" s="87">
         <v>5</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="70"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="70"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="70"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="75"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="89">
+      <c r="A22" s="69">
         <v>6</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="90"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="90"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="90"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="90"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="90"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="70">
+      <c r="A28" s="87">
         <v>7</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
@@ -2750,12 +2750,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
@@ -2830,18 +2830,18 @@
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="85"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="70">
+      <c r="A47" s="87">
         <v>1</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="86" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2850,48 +2850,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="70"/>
-      <c r="B48" s="69"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="86"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="70"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="86"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="70"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="70"/>
-      <c r="B51" s="69"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="70"/>
-      <c r="B52" s="69"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="86"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="70"/>
-      <c r="B53" s="69"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="86"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
@@ -2904,18 +2904,18 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="85"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="70">
+      <c r="A56" s="87">
         <v>1</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="86" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2924,40 +2924,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="70"/>
-      <c r="B57" s="69"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="86"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="70"/>
-      <c r="B58" s="69"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="86"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="70"/>
-      <c r="B59" s="69"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="86"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="70"/>
-      <c r="B60" s="69"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="70"/>
-      <c r="B61" s="69"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
@@ -2977,19 +2977,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -3006,6 +2993,19 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3419,7 +3419,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="2" max="2" width="103.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
@@ -3818,7 +3818,7 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="56" t="s">
         <v>253</v>
       </c>
     </row>

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA191EA-BDE7-40D5-9EEA-735ACB360007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -826,7 +820,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1531,7 +1525,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1569,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1613,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1657,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1701,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1745,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1789,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1833,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1877,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1921,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1965,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2009,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2059,7 +2053,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,14 +2337,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -2358,16 +2352,16 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="139.140625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="139.109375" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="58.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="73" t="s">
         <v>63</v>
       </c>
@@ -2384,7 +2378,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
@@ -2407,7 +2401,7 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="76" t="s">
         <v>27</v>
       </c>
@@ -2415,7 +2409,7 @@
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
     </row>
-    <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -2434,7 +2428,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="80">
         <v>2</v>
       </c>
@@ -2448,7 +2442,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="80"/>
       <c r="B6" s="64"/>
       <c r="C6" s="43" t="s">
@@ -2463,7 +2457,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="80"/>
       <c r="B7" s="64"/>
       <c r="C7" s="43" t="s">
@@ -2473,7 +2467,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="80"/>
       <c r="B8" s="64"/>
       <c r="C8" s="43" t="s">
@@ -2483,7 +2477,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="80"/>
       <c r="B9" s="64"/>
       <c r="C9" s="43" t="s">
@@ -2493,7 +2487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="80"/>
       <c r="B10" s="64"/>
       <c r="C10" s="43" t="s">
@@ -2503,7 +2497,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80"/>
       <c r="B11" s="64"/>
       <c r="C11" s="43" t="s">
@@ -2513,7 +2507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -2527,7 +2521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="67"/>
       <c r="B13" s="65" t="s">
         <v>71</v>
@@ -2537,13 +2531,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="68"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
       <c r="D14" s="78"/>
     </row>
-    <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="80">
         <v>4</v>
       </c>
@@ -2555,7 +2549,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="80"/>
       <c r="B16" s="64"/>
       <c r="C16" s="79"/>
@@ -2563,7 +2557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="80"/>
       <c r="B17" s="64"/>
       <c r="C17" s="66"/>
@@ -2571,7 +2565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="87">
         <v>5</v>
       </c>
@@ -2583,7 +2577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="87"/>
       <c r="B19" s="86"/>
       <c r="C19" s="89"/>
@@ -2591,7 +2585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="87"/>
       <c r="B20" s="86"/>
       <c r="C20" s="89"/>
@@ -2599,7 +2593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="87"/>
       <c r="B21" s="86"/>
       <c r="C21" s="90"/>
@@ -2607,7 +2601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="69">
         <v>6</v>
       </c>
@@ -2619,7 +2613,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="70"/>
       <c r="B23" s="72"/>
       <c r="C23" s="72"/>
@@ -2627,7 +2621,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="70"/>
       <c r="B24" s="72"/>
       <c r="C24" s="72"/>
@@ -2635,7 +2629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="70"/>
       <c r="B25" s="72"/>
       <c r="C25" s="72"/>
@@ -2643,7 +2637,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="70"/>
       <c r="B26" s="72"/>
       <c r="C26" s="72"/>
@@ -2651,7 +2645,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="70"/>
       <c r="B27" s="72"/>
       <c r="C27" s="72"/>
@@ -2659,7 +2653,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="87">
         <v>7</v>
       </c>
@@ -2671,25 +2665,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="87"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="87"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
       <c r="D30" s="44"/>
     </row>
-    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="87"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
       <c r="D31" s="44"/>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16">
         <v>8</v>
       </c>
@@ -2701,7 +2695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
         <v>9</v>
       </c>
@@ -2713,7 +2707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>10</v>
       </c>
@@ -2725,7 +2719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16">
         <v>11</v>
       </c>
@@ -2737,7 +2731,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
         <v>12</v>
       </c>
@@ -2749,13 +2743,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="83" t="s">
         <v>29</v>
       </c>
@@ -2763,7 +2757,7 @@
       <c r="C38" s="84"/>
       <c r="D38" s="85"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="17">
         <v>1</v>
       </c>
@@ -2775,7 +2769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>2</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -2799,7 +2793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>4</v>
       </c>
@@ -2811,7 +2805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>5</v>
       </c>
@@ -2823,19 +2817,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="83" t="s">
         <v>28</v>
       </c>
@@ -2843,7 +2837,7 @@
       <c r="C46" s="84"/>
       <c r="D46" s="85"/>
     </row>
-    <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="87">
         <v>1</v>
       </c>
@@ -2855,7 +2849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="87"/>
       <c r="B48" s="86"/>
       <c r="C48" s="40"/>
@@ -2863,7 +2857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="87"/>
       <c r="B49" s="86"/>
       <c r="C49" s="40"/>
@@ -2871,7 +2865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="87"/>
       <c r="B50" s="86"/>
       <c r="C50" s="40"/>
@@ -2879,7 +2873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="87"/>
       <c r="B51" s="86"/>
       <c r="C51" s="40"/>
@@ -2887,7 +2881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="87"/>
       <c r="B52" s="86"/>
       <c r="C52" s="40"/>
@@ -2895,7 +2889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="87"/>
       <c r="B53" s="86"/>
       <c r="C53" s="40"/>
@@ -2903,13 +2897,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="83" t="s">
         <v>55</v>
       </c>
@@ -2917,7 +2911,7 @@
       <c r="C55" s="84"/>
       <c r="D55" s="85"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="87">
         <v>1</v>
       </c>
@@ -2929,7 +2923,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="87"/>
       <c r="B57" s="86"/>
       <c r="C57" s="40"/>
@@ -2937,7 +2931,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="87"/>
       <c r="B58" s="86"/>
       <c r="C58" s="40"/>
@@ -2945,7 +2939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="87"/>
       <c r="B59" s="86"/>
       <c r="C59" s="40"/>
@@ -2953,7 +2947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="87"/>
       <c r="B60" s="86"/>
       <c r="C60" s="40"/>
@@ -2961,7 +2955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="87"/>
       <c r="B61" s="86"/>
       <c r="C61" s="40"/>
@@ -2969,13 +2963,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -3019,7 +3013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A142"/>
   <sheetViews>
@@ -3027,74 +3021,74 @@
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
     </row>
-    <row r="41" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="22"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="22"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="22"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="20" t="s">
         <v>100</v>
       </c>
@@ -3107,7 +3101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3115,16 +3109,16 @@
       <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="26"/>
-    <col min="2" max="2" width="43.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="43.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="6" customWidth="1"/>
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
@@ -3141,7 +3135,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -3158,7 +3152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -3192,7 +3186,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -3209,7 +3203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -3226,7 +3220,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -3243,7 +3237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -3260,7 +3254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -3277,7 +3271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -3294,7 +3288,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -3311,7 +3305,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -3328,7 +3322,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -3345,7 +3339,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -3371,7 +3365,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -3380,7 +3374,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -3389,7 +3383,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -3398,7 +3392,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -3414,23 +3408,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="103.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
@@ -3446,14 +3440,14 @@
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="94"/>
       <c r="C4" s="94"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -3461,7 +3455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3472,7 +3466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3475,7 @@
       </c>
       <c r="C7" s="95"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +3484,7 @@
       </c>
       <c r="C8" s="95"/>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -3499,14 +3493,14 @@
       </c>
       <c r="C9" s="95"/>
     </row>
-    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -3526,7 +3520,7 @@
       </c>
       <c r="C14" s="95"/>
     </row>
-    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -3535,7 +3529,7 @@
       </c>
       <c r="C15" s="95"/>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -3544,14 +3538,14 @@
       </c>
       <c r="C16" s="95"/>
     </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3559,7 +3553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3579,7 +3573,7 @@
       </c>
       <c r="C21" s="95"/>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3582,7 @@
       </c>
       <c r="C22" s="95"/>
     </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -3597,14 +3591,14 @@
       </c>
       <c r="C23" s="95"/>
     </row>
-    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -3612,17 +3606,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -3633,17 +3627,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="91"/>
       <c r="B32" s="91"/>
       <c r="C32" s="91"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3651,7 +3645,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3659,7 +3653,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3673,7 +3667,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3690,7 +3684,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -3710,7 +3704,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
@@ -3721,7 +3715,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7</v>
       </c>
@@ -3729,7 +3723,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3737,7 +3731,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9</v>
       </c>
@@ -3745,7 +3739,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10</v>
       </c>
@@ -3753,7 +3747,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>11</v>
       </c>
@@ -3764,30 +3758,30 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="62" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="56" t="s">
         <v>236</v>
       </c>
       <c r="C47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>237</v>
       </c>
@@ -3795,22 +3789,22 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="60" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
@@ -3818,27 +3812,27 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="62" t="s">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="63" t="s">
         <v>254</v>
       </c>
@@ -3861,28 +3855,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D76"/>
   <sheetViews>
     <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="112" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3893,23 +3887,23 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -3937,7 +3931,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>155</v>
       </c>
@@ -3948,7 +3942,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3959,7 +3953,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3970,7 +3964,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3981,14 +3975,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="96" t="s">
         <v>161</v>
       </c>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3999,17 +3993,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4020,7 +4014,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4031,7 +4025,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4045,7 +4039,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4056,14 +4050,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="96" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4074,17 +4068,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="54">
         <v>2</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>172</v>
       </c>
@@ -4107,7 +4101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>173</v>
       </c>
@@ -4118,7 +4112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>181</v>
       </c>
@@ -4126,7 +4120,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>182</v>
       </c>
@@ -4134,7 +4128,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4142,7 +4136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="52" t="s">
         <v>173</v>
       </c>
@@ -4150,7 +4144,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>190</v>
       </c>
@@ -4158,7 +4152,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4166,7 +4160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="28" t="s">
         <v>157</v>
       </c>
@@ -4174,7 +4168,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>193</v>
       </c>
@@ -4182,7 +4176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4190,7 +4184,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>172</v>
       </c>
@@ -4198,7 +4192,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>173</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4214,7 +4208,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>177</v>
       </c>
@@ -4222,7 +4216,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>178</v>
       </c>
@@ -4230,14 +4224,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="96" t="s">
         <v>196</v>
       </c>
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -4249,7 +4243,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
@@ -4257,7 +4251,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
@@ -4265,7 +4259,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="54">
         <v>2</v>
       </c>
@@ -4277,7 +4271,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>172</v>
@@ -4287,7 +4281,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
         <v>173</v>
@@ -4299,7 +4293,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>181</v>
@@ -4309,7 +4303,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>182</v>
@@ -4319,13 +4313,13 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -4335,7 +4329,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="52" t="s">
         <v>173</v>
@@ -4347,7 +4341,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>190</v>
@@ -4357,13 +4351,13 @@
       </c>
       <c r="D60" s="53"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="53"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>4</v>
       </c>
@@ -4373,7 +4367,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="53"/>
     </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="28" t="s">
         <v>157</v>
@@ -4385,7 +4379,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>193</v>
@@ -4395,13 +4389,13 @@
       </c>
       <c r="D64" s="98"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="53"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>5</v>
       </c>
@@ -4411,7 +4405,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="53"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>196</v>
@@ -4423,7 +4417,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" t="s">
         <v>168</v>
@@ -4433,7 +4427,7 @@
       </c>
       <c r="D68" s="98"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>172</v>
@@ -4443,7 +4437,7 @@
       </c>
       <c r="D69" s="98"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
         <v>173</v>
       </c>
@@ -4452,10 +4446,10 @@
       </c>
       <c r="D70" s="98"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>6</v>
       </c>
@@ -4465,7 +4459,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="52"/>
       <c r="C73" s="1"/>
@@ -4473,7 +4467,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" t="s">
         <v>198</v>
@@ -4483,7 +4477,7 @@
       </c>
       <c r="D74" s="97"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" s="6" t="s">
         <v>177</v>
       </c>
@@ -4492,7 +4486,7 @@
       </c>
       <c r="D75" s="97"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
         <v>178</v>
       </c>

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74E9E9-A079-402E-BEEE-E8C20D9C8ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="1560" yWindow="120" windowWidth="14655" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="261">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -816,11 +822,29 @@
   <si>
     <t>DM_loaimonan 8icon  -&gt; Hiển thị tab: icon tên trong từng tab. Chọn tab đó -&gt; hiển thị CH đó</t>
   </si>
+  <si>
+    <t>CÁC MỤC CẦN THÊM</t>
+  </si>
+  <si>
+    <t>Lấy được hình ảnh và tên CH khi đăng nhập -&gt; Hiển thị bên leftcontent -&gt; Hình tròn cần được fix lại</t>
+  </si>
+  <si>
+    <t>Quản lý chi nhánh -&gt; Xem lại Id không gắn được từng dòng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách CH -&gt; Chọn dòng đó sẽ vào thông tin tài khoản của CH</t>
+  </si>
+  <si>
+    <t>Quản lý đăng ký CH</t>
+  </si>
+  <si>
+    <t>Dashboard Admin: load tổng số CN, CH lên icon dòng đầu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,7 +982,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,6 +1070,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1377,15 +1407,75 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1398,66 +1488,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1482,6 +1512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1525,7 +1556,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1600,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1644,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1688,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1732,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,7 +1776,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1820,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1864,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1908,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1952,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1996,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2040,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2084,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,14 +2368,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -2352,22 +2383,22 @@
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="139.109375" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="32"/>
+    <col min="1" max="1" width="6.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="139.140625" style="32" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="58.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2378,7 +2409,7 @@
       <c r="L1" s="31"/>
       <c r="M1" s="31"/>
     </row>
-    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
@@ -2401,15 +2432,15 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+    </row>
+    <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -2422,17 +2453,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="80">
+    <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="71" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2442,24 +2473,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="80"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="72"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="64"/>
+    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2467,9 +2498,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="80"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2477,9 +2508,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="80"/>
-      <c r="B9" s="64"/>
+    <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2487,9 +2518,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2497,9 +2528,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
-      <c r="B11" s="64"/>
+    <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2507,7 +2538,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -2521,169 +2552,169 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67"/>
-      <c r="B13" s="65" t="s">
+    <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87"/>
+      <c r="B13" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="77" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="84" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="78"/>
-    </row>
-    <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="80">
+    <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="88"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
+    </row>
+    <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72">
         <v>4</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="80"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="79"/>
+    <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="80"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="66"/>
+    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="87">
+    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="70">
         <v>5</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="88"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="87"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="89"/>
+    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="89"/>
+    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="70"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="87"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="90"/>
+    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="70"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="75"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="69">
+    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="89">
         <v>6</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="70"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
+    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="70"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
+    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="90"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
+    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="70"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
+    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="90"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="87">
+    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="70">
         <v>7</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="87"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
+    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="87"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
+    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="44"/>
     </row>
-    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="87"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
+    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="44"/>
     </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>8</v>
       </c>
@@ -2695,7 +2726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>9</v>
       </c>
@@ -2707,7 +2738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>10</v>
       </c>
@@ -2719,7 +2750,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>11</v>
       </c>
@@ -2731,7 +2762,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>12</v>
       </c>
@@ -2743,21 +2774,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="19"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="83" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>1</v>
       </c>
@@ -2769,7 +2800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>2</v>
       </c>
@@ -2781,7 +2812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>3</v>
       </c>
@@ -2793,7 +2824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>4</v>
       </c>
@@ -2805,7 +2836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>5</v>
       </c>
@@ -2817,31 +2848,31 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="10"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="83" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="84"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="85"/>
-    </row>
-    <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="87">
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+    </row>
+    <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="70">
         <v>1</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2849,73 +2880,73 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="87"/>
-      <c r="B48" s="86"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="70"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="87"/>
-      <c r="B49" s="86"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="70"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="87"/>
-      <c r="B50" s="86"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="70"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="87"/>
-      <c r="B51" s="86"/>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="70"/>
+      <c r="B51" s="69"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="87"/>
-      <c r="B52" s="86"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="70"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="87"/>
-      <c r="B53" s="86"/>
+    <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="70"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="83" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="84"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="85"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="87">
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="70">
         <v>1</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2923,53 +2954,53 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="87"/>
-      <c r="B57" s="86"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="70"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="87"/>
-      <c r="B58" s="86"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="70"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="87"/>
-      <c r="B59" s="86"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="70"/>
+      <c r="B59" s="69"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="87"/>
-      <c r="B60" s="86"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="70"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="87"/>
-      <c r="B61" s="86"/>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="70"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -2977,6 +3008,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -2993,19 +3037,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3013,7 +3044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A142"/>
   <sheetViews>
@@ -3021,74 +3052,74 @@
       <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
     </row>
-    <row r="41" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
         <v>100</v>
       </c>
@@ -3101,7 +3132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3109,16 +3140,16 @@
       <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="26"/>
-    <col min="2" max="2" width="43.33203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="26"/>
+    <col min="2" max="2" width="43.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
@@ -3135,7 +3166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -3152,7 +3183,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -3169,7 +3200,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -3186,7 +3217,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -3203,7 +3234,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -3220,7 +3251,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -3237,7 +3268,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -3254,7 +3285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -3271,7 +3302,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -3288,7 +3319,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -3305,7 +3336,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -3322,7 +3353,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -3339,7 +3370,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -3356,7 +3387,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -3365,7 +3396,7 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -3374,7 +3405,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -3383,7 +3414,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -3392,7 +3423,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -3408,23 +3439,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="103.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>23</v>
       </c>
@@ -3440,14 +3471,14 @@
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="94"/>
       <c r="C4" s="94"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -3455,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -3466,7 +3497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3506,7 @@
       </c>
       <c r="C7" s="95"/>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -3484,7 +3515,7 @@
       </c>
       <c r="C8" s="95"/>
     </row>
-    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -3493,14 +3524,14 @@
       </c>
       <c r="C9" s="95"/>
     </row>
-    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="94"/>
       <c r="C11" s="94"/>
     </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -3511,7 +3542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -3520,7 +3551,7 @@
       </c>
       <c r="C14" s="95"/>
     </row>
-    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -3529,7 +3560,7 @@
       </c>
       <c r="C15" s="95"/>
     </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -3538,14 +3569,14 @@
       </c>
       <c r="C16" s="95"/>
     </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3553,7 +3584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -3564,7 +3595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
@@ -3573,7 +3604,7 @@
       </c>
       <c r="C21" s="95"/>
     </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -3582,7 +3613,7 @@
       </c>
       <c r="C22" s="95"/>
     </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -3591,14 +3622,14 @@
       </c>
       <c r="C23" s="95"/>
     </row>
-    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="94"/>
       <c r="C25" s="94"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -3606,17 +3637,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -3627,17 +3658,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="91"/>
       <c r="B32" s="91"/>
       <c r="C32" s="91"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3645,7 +3676,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3653,7 +3684,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3667,7 +3698,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3684,7 +3715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -3704,7 +3735,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -3715,7 +3746,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -3723,7 +3754,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3731,7 +3762,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -3739,7 +3770,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
@@ -3747,7 +3778,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -3758,22 +3789,22 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="56" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="56" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="56" t="s">
         <v>236</v>
       </c>
@@ -3781,7 +3812,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>237</v>
       </c>
@@ -3789,22 +3820,22 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="60" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
@@ -3812,29 +3843,59 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="56" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="63" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="99" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3855,28 +3916,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D76"/>
   <sheetViews>
     <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="112" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="96"/>
       <c r="C2" s="96"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3887,23 +3948,23 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -3917,7 +3978,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -3931,7 +3992,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>155</v>
       </c>
@@ -3942,7 +4003,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3953,7 +4014,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -3964,7 +4025,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -3975,14 +4036,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
         <v>161</v>
       </c>
       <c r="B14" s="96"/>
       <c r="C14" s="96"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3993,17 +4054,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4014,7 +4075,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4025,7 +4086,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4039,7 +4100,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4050,14 +4111,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="96" t="s">
         <v>168</v>
       </c>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4068,17 +4129,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <v>2</v>
       </c>
@@ -4090,7 +4151,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>172</v>
       </c>
@@ -4101,7 +4162,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>173</v>
       </c>
@@ -4112,7 +4173,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>181</v>
       </c>
@@ -4120,7 +4181,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>182</v>
       </c>
@@ -4128,7 +4189,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4136,7 +4197,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
         <v>173</v>
       </c>
@@ -4144,7 +4205,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>190</v>
       </c>
@@ -4152,7 +4213,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4160,7 +4221,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
         <v>157</v>
       </c>
@@ -4168,7 +4229,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>193</v>
       </c>
@@ -4176,7 +4237,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4184,7 +4245,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>172</v>
       </c>
@@ -4192,7 +4253,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>173</v>
       </c>
@@ -4200,7 +4261,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4208,7 +4269,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>177</v>
       </c>
@@ -4216,7 +4277,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>178</v>
       </c>
@@ -4224,14 +4285,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="96" t="s">
         <v>196</v>
       </c>
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -4243,7 +4304,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
@@ -4251,7 +4312,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
@@ -4259,7 +4320,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="54">
         <v>2</v>
       </c>
@@ -4271,7 +4332,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>172</v>
@@ -4281,7 +4342,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
         <v>173</v>
@@ -4293,7 +4354,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>181</v>
@@ -4303,7 +4364,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>182</v>
@@ -4313,13 +4374,13 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -4329,7 +4390,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="52" t="s">
         <v>173</v>
@@ -4341,7 +4402,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>190</v>
@@ -4351,13 +4412,13 @@
       </c>
       <c r="D60" s="53"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="53"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>4</v>
       </c>
@@ -4367,7 +4428,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="53"/>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="28" t="s">
         <v>157</v>
@@ -4379,7 +4440,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>193</v>
@@ -4389,13 +4450,13 @@
       </c>
       <c r="D64" s="98"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="53"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>5</v>
       </c>
@@ -4405,7 +4466,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="53"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>196</v>
@@ -4417,7 +4478,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" t="s">
         <v>168</v>
@@ -4427,7 +4488,7 @@
       </c>
       <c r="D68" s="98"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>172</v>
@@ -4437,7 +4498,7 @@
       </c>
       <c r="D69" s="98"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>173</v>
       </c>
@@ -4446,10 +4507,10 @@
       </c>
       <c r="D70" s="98"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>6</v>
       </c>
@@ -4459,7 +4520,7 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="52"/>
       <c r="C73" s="1"/>
@@ -4467,7 +4528,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" t="s">
         <v>198</v>
@@ -4477,7 +4538,7 @@
       </c>
       <c r="D74" s="97"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>177</v>
       </c>
@@ -4486,7 +4547,7 @@
       </c>
       <c r="D75" s="97"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>178</v>
       </c>

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74E9E9-A079-402E-BEEE-E8C20D9C8ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BDF258-294D-45BA-AD20-D88A0541A7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="120" windowWidth="14655" windowHeight="10800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -1407,6 +1407,58 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1428,12 +1480,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1443,51 +1489,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1512,7 +1513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1673,13 +1673,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>580800</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28350</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>91040</xdr:rowOff>
     </xdr:to>
@@ -1704,8 +1704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7330440" y="3840480"/>
-          <a:ext cx="1800000" cy="3200000"/>
+          <a:off x="7334250" y="4000500"/>
+          <a:ext cx="1800000" cy="3329540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2393,12 +2393,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="80"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2433,12 +2433,12 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -2453,17 +2453,17 @@
       <c r="D4" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
       <c r="I4" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72">
+      <c r="A5" s="81">
         <v>2</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="65" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="43" t="s">
@@ -2474,23 +2474,23 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="43" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="43" t="s">
         <v>110</v>
       </c>
@@ -2499,8 +2499,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="43" t="s">
         <v>82</v>
       </c>
@@ -2509,8 +2509,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="43" t="s">
         <v>80</v>
       </c>
@@ -2519,8 +2519,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -2529,8 +2529,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -2553,165 +2553,165 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="68"/>
+      <c r="B13" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="84" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="78" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="79"/>
     </row>
     <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72">
+      <c r="A15" s="81">
         <v>4</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="44" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="44" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70">
+      <c r="A18" s="88">
         <v>5</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="74"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="40" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="74"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="75"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="89">
+      <c r="A22" s="70">
         <v>6</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="40" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="90"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="40" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="40" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
       <c r="D27" s="40" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70">
+      <c r="A28" s="88">
         <v>7</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="71"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="44" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="70"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2781,12 +2781,12 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="86"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
@@ -2861,18 +2861,18 @@
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="86"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="70">
+      <c r="A47" s="88">
         <v>1</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="87" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="40"/>
@@ -2881,48 +2881,48 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="70"/>
-      <c r="B48" s="69"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="87"/>
       <c r="C48" s="40"/>
       <c r="D48" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="70"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="87"/>
       <c r="C49" s="40"/>
       <c r="D49" s="51" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="70"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="40"/>
       <c r="D50" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="70"/>
-      <c r="B51" s="69"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="40"/>
       <c r="D51" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="70"/>
-      <c r="B52" s="69"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="87"/>
       <c r="C52" s="40"/>
       <c r="D52" s="51" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="70"/>
-      <c r="B53" s="69"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="87"/>
       <c r="C53" s="40"/>
       <c r="D53" s="50" t="s">
         <v>62</v>
@@ -2935,18 +2935,18 @@
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="86"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="70">
+      <c r="A56" s="88">
         <v>1</v>
       </c>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="87" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="40"/>
@@ -2955,40 +2955,40 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="70"/>
-      <c r="B57" s="69"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="40"/>
       <c r="D57" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="70"/>
-      <c r="B58" s="69"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="87"/>
       <c r="C58" s="40"/>
       <c r="D58" s="50" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="70"/>
-      <c r="B59" s="69"/>
+      <c r="A59" s="88"/>
+      <c r="B59" s="87"/>
       <c r="C59" s="40"/>
       <c r="D59" s="50" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="70"/>
-      <c r="B60" s="69"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="40"/>
       <c r="D60" s="50" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="70"/>
-      <c r="B61" s="69"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="40"/>
       <c r="D61" s="50" t="s">
         <v>61</v>
@@ -3008,19 +3008,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A55:D55"/>
@@ -3037,6 +3024,19 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3048,8 +3048,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A142"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3443,7 +3443,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -3456,11 +3456,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
@@ -3472,11 +3472,11 @@
       <c r="L1" s="36"/>
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -3493,7 +3493,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="96" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="96"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -3513,7 +3513,7 @@
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="96"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -3522,14 +3522,14 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="96"/>
     </row>
     <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -3538,7 +3538,7 @@
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="96" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="95"/>
+      <c r="C14" s="96"/>
     </row>
     <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -3558,7 +3558,7 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="95"/>
+      <c r="C15" s="96"/>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -3567,14 +3567,14 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="96"/>
     </row>
     <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -3591,7 +3591,7 @@
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="96" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="96"/>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -3611,7 +3611,7 @@
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="95"/>
+      <c r="C22" s="96"/>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -3620,14 +3620,14 @@
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="95"/>
+      <c r="C23" s="96"/>
     </row>
     <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
@@ -3664,9 +3664,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3869,7 +3869,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="99" t="s">
+      <c r="B60" s="64" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3931,11 +3931,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4037,11 +4037,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4112,11 +4112,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4286,11 +4286,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -4436,7 +4436,7 @@
       <c r="C63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="98" t="s">
+      <c r="D63" s="99" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       <c r="C64" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="98"/>
+      <c r="D64" s="99"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
@@ -4474,7 +4474,7 @@
       <c r="C67" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="98" t="s">
+      <c r="D67" s="99" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       <c r="C68" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="98"/>
+      <c r="D68" s="99"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
@@ -4496,7 +4496,7 @@
       <c r="C69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="98"/>
+      <c r="D69" s="99"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
@@ -4505,7 +4505,7 @@
       <c r="C70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D70" s="98"/>
+      <c r="D70" s="99"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
@@ -4524,7 +4524,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="52"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="97" t="s">
+      <c r="D73" s="98" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       <c r="C74" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D74" s="97"/>
+      <c r="D74" s="98"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
@@ -4545,7 +4545,7 @@
       <c r="C75" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="97"/>
+      <c r="D75" s="98"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
@@ -4554,7 +4554,7 @@
       <c r="C76" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="97"/>
+      <c r="D76" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BDF258-294D-45BA-AD20-D88A0541A7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="279">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -136,9 +130,6 @@
     <t>ADMIN STORE PLATFORM (WEB)</t>
   </si>
   <si>
-    <t>SHIPPER PLATFORM (ANDROID APP)</t>
-  </si>
-  <si>
     <t>Slider hình ảnh + text giới thiệu</t>
   </si>
   <si>
@@ -169,75 +160,24 @@
     <t>Welcome</t>
   </si>
   <si>
-    <t>List Invoice</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách các đơn hàng mà khách hàng đặt</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
-    <t>Login bằng account được hệ thống cung cấp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị icon app </t>
-  </si>
-  <si>
-    <t>Hiển thị thông tin đơn hàng (nhà hàng, món ăn và khách hàng)</t>
-  </si>
-  <si>
     <t>Detail Invoice</t>
   </si>
   <si>
     <t>List invoice</t>
   </si>
   <si>
-    <t>Status Invoice</t>
-  </si>
-  <si>
-    <t>Giúp shipper xác nhận tình trạng đơn hàng (Đang chờ nhận đơn-&gt; Đi đến cửa hàng -&gt; Đang đặt món -&gt; Đang đi giao -&gt; Đã giao )</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Danh mục đơn hàng</t>
-  </si>
-  <si>
-    <t>Chat (-)</t>
-  </si>
-  <si>
-    <t>Xác nhận/hủy đơn hàng (cửa hàng còn hàng/hết hàng)</t>
-  </si>
-  <si>
-    <t>Thông tin cửa hàng (+)</t>
-  </si>
-  <si>
     <t>ADMIN FOODNOW SYSTEM PLATFORM (WEB)</t>
   </si>
   <si>
     <t>Danh mục cửa hàng</t>
   </si>
   <si>
-    <t>Danh mục món ăn(Duyệt đề xuất món ăn)</t>
-  </si>
-  <si>
-    <t>Danh mục kế toán</t>
-  </si>
-  <si>
-    <t>Giao hàng</t>
-  </si>
-  <si>
-    <t>Quyền(Giám đốc, nhân viên)</t>
-  </si>
-  <si>
     <t>Báo cáo</t>
   </si>
   <si>
-    <t>Thông báo đơn hàng (push notification)</t>
-  </si>
-  <si>
     <t>Project System FoodNow</t>
   </si>
   <si>
@@ -268,9 +208,6 @@
     <t>Information Store</t>
   </si>
   <si>
-    <t>Hiện thị các khuyến mãi được cửa hàng áp dụng</t>
-  </si>
-  <si>
     <t>Hiển thị địa chỉ của khách hàng (dựa vào vị trí của khách hàng thông qua GPS)</t>
   </si>
   <si>
@@ -380,9 +317,6 @@
   </si>
   <si>
     <t>route: /Danhmucloaimonan</t>
-  </si>
-  <si>
-    <t>route: /Danhsachmonangoiy</t>
   </si>
   <si>
     <t>POST</t>
@@ -839,12 +773,132 @@
   </si>
   <si>
     <t>Dashboard Admin: load tổng số CN, CH lên icon dòng đầu</t>
+  </si>
+  <si>
+    <t>Thông tin chi tiết tài khoảng (sdt, email, địa chỉ)</t>
+  </si>
+  <si>
+    <t>route: /</t>
+  </si>
+  <si>
+    <t>Danh mục cửa hàng - loại món ăn</t>
+  </si>
+  <si>
+    <t>Danh mục cửa hàng - hôm nay</t>
+  </si>
+  <si>
+    <t>Danh mục cửa hàng - trang chủ</t>
+  </si>
+  <si>
+    <t>Đăng ký cửa hàng - chi nhánh</t>
+  </si>
+  <si>
+    <t>Báo cáo thống kê</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các chi nhánh - cửa hàng thuộc chi nhánh</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các cửa hàng, check/uncheck cừa hàng thuộc menu 8 loại món ăn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị, thêm, xóa danh sách các danh mục gợi ý
+Hiển thị, check/uncheck các cưa hàng thuộc danh mục gợi ý </t>
+  </si>
+  <si>
+    <t>Hiển thị, thêm, xóa danh sách các danh mục gợi ý cùa trang chủ
+Hiển thị, check/uncheck các cưa hàng thuộc danh mục gợi ý trang chủ</t>
+  </si>
+  <si>
+    <t>Hiển thị, thêm xóa các khuyến mãi thuộc hệ thống foodnow
+Cho phép áp dụng hoặc gỡ bỏ khuyến mãi lên chi nhánh (cửa hàng thuộc chi nhánh sẽ được áo dụng)</t>
+  </si>
+  <si>
+    <t>Thêm xóa chi nhánh
+Đăng ký cửa hàng cho từng chi nhánh</t>
+  </si>
+  <si>
+    <t>…….</t>
+  </si>
+  <si>
+    <t>Danh sách đơn hàng</t>
+  </si>
+  <si>
+    <t>Danh mục món ăn</t>
+  </si>
+  <si>
+    <t>Thông tin tài khoản</t>
+  </si>
+  <si>
+    <t>Thông tin cửa hàng</t>
+  </si>
+  <si>
+    <t>Cho phép xem đầy đủ thông tin của cửa hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các đơn hàng đang được đặt (data realtime)
+Xác nhận, hủy, xuất hóa đơn</t>
+  </si>
+  <si>
+    <t>Hiển thị, thêm xóa danh sách các loại món ăn
+Hiển thị thêm xóa danh sách các món ăn thuộc từng loại</t>
+  </si>
+  <si>
+    <t>Hiển thị, thêm khuyến mãi thuộc riêng cửa hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị các khuyến mãi được hệ thống áp dụng</t>
+  </si>
+  <si>
+    <t>…………</t>
+  </si>
+  <si>
+    <t>Hiện chỉnh sửa thông tin cửa hàng</t>
+  </si>
+  <si>
+    <t>Hiện thị các khuyến mãi được cửa hàng áp dụng + khuyến mãi HT</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin Username/ password, cho phép đổi password</t>
+  </si>
+  <si>
+    <t>Enable/ disable cửa hàng - quản lý việc hoạt động của cửa hàng trên hệ thống</t>
+  </si>
+  <si>
+    <t>Dashboard home</t>
+  </si>
+  <si>
+    <t>Tổng hợp thông tin chung của hệ thống (số lượng chi nhánh, cửa hàng/ user, đơn hàng….)</t>
+  </si>
+  <si>
+    <t>PROBLEM</t>
+  </si>
+  <si>
+    <t>data các từ khóa đang gắn cứng, chưa có data + api, chưa apply api</t>
+  </si>
+  <si>
+    <t>check lại api search, chưa code apply api</t>
+  </si>
+  <si>
+    <t>chưa code api + apply api</t>
+  </si>
+  <si>
+    <t>chỉ thanh toán bằng tiền mặt</t>
+  </si>
+  <si>
+    <t>đang bug =&gt; chưa điều tra</t>
+  </si>
+  <si>
+    <t>chưa tạo playout + api + apply api</t>
+  </si>
+  <si>
+    <t>Khách hàng thêm cửa hàng vào danh sách các cửa hàng yêu thích</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,11 +946,6 @@
       <b/>
       <sz val="13"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -980,6 +1029,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1080,7 +1135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1181,43 +1236,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1250,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1269,17 +1287,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1294,25 +1306,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,22 +1335,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,12 +1359,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1371,22 +1368,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1394,7 +1376,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1404,7 +1386,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
@@ -1414,14 +1396,53 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1429,70 +1450,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1504,7 +1465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1512,6 +1473,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1556,7 +1544,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1588,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1632,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1676,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1720,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1764,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1808,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1852,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1896,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1940,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1984,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2028,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2072,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,37 +2356,1136 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="139.140625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="6.88671875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="139.109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="83.88671875" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="58.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" s="30" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="64">
+        <v>2</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="64"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16">
+        <v>3</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="55"/>
+      <c r="B13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="64">
+        <v>4</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="64"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="62">
+        <v>5</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="71">
+        <v>6</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="72"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="72"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="72"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="72"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="72"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="62">
+        <v>7</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="63"/>
+      <c r="D28" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="37"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14">
+        <v>8</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14">
+        <v>9</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>10</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="14">
+        <v>11</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14">
+        <v>12</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="85">
+        <v>1</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="86">
+        <v>2</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="85">
+        <v>3</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="86">
+        <v>4</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="56"/>
+      <c r="D42" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="85">
+        <v>5</v>
+      </c>
+      <c r="B43" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="86">
+        <v>6</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" s="56"/>
+      <c r="D44" s="37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="85">
+        <v>1</v>
+      </c>
+      <c r="B47" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="85"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="87" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="85">
+        <v>2</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="85">
+        <v>3</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="85">
+        <v>4</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="85">
+        <v>5</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="85">
+        <v>6</v>
+      </c>
+      <c r="B53" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="85">
+        <v>7</v>
+      </c>
+      <c r="B54" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="85">
+        <v>8</v>
+      </c>
+      <c r="B55" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="87" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="85"/>
+      <c r="B56" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="85">
+        <v>9</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="A28:A31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="17"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="17"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="17"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="17"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="21"/>
+    <col min="2" max="2" width="43.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:L65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="103.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
+        <v>23</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
@@ -2407,1078 +3494,15 @@
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" s="35" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-    </row>
-    <row r="4" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>1</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
-        <v>2</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>3</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="79"/>
-    </row>
-    <row r="15" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81">
-        <v>4</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="88">
-        <v>5</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="88"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70">
+    </row>
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="71"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88">
-        <v>7</v>
-      </c>
-      <c r="B28" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="44"/>
-    </row>
-    <row r="30" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="44"/>
-    </row>
-    <row r="31" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="44"/>
-    </row>
-    <row r="32" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
-        <v>8</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
-        <v>9</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16">
-        <v>10</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16">
-        <v>11</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
-        <v>12</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="86"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
-        <v>1</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
-        <v>2</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
-        <v>3</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
-        <v>4</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>5</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="86"/>
-    </row>
-    <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="88">
-        <v>1</v>
-      </c>
-      <c r="B47" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="88"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="88"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="88"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="88"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="88"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="88"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="86"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="88">
-        <v>1</v>
-      </c>
-      <c r="B56" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="88"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="88"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="88"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="88"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="88"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A142"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" style="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-    </row>
-    <row r="41" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="22"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="26"/>
-    <col min="2" max="2" width="43.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="90" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-    </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -3486,97 +3510,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="96"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="77"/>
+    </row>
+    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="96"/>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="77"/>
+    </row>
+    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="96"/>
-    </row>
-    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="C9" s="77"/>
+    </row>
+    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+    </row>
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="96"/>
-    </row>
-    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="77"/>
+    </row>
+    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="96"/>
-    </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="77"/>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="96"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="C16" s="77"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3584,52 +3608,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="77" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="96"/>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="77"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="96"/>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="77"/>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="96"/>
-    </row>
-    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94" t="s">
+      <c r="C23" s="77"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -3637,265 +3661,265 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="56" t="s">
-        <v>216</v>
+      <c r="B35" s="44" t="s">
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="56" t="s">
-        <v>217</v>
+      <c r="B36" s="44" t="s">
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="61" t="s">
-        <v>218</v>
+      <c r="B37" s="49" t="s">
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="57" t="s">
-        <v>219</v>
+      <c r="B38" s="45" t="s">
+        <v>199</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7</v>
       </c>
-      <c r="B39" s="60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="48" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" s="56" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9</v>
       </c>
-      <c r="B41" s="56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10</v>
       </c>
-      <c r="B42" s="55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>11</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="C43" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="56" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="51" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="56" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="52" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="56" t="s">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>236</v>
       </c>
-      <c r="C47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>237</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="60" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="56" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="63" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="64" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3916,645 +3940,645 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="112" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="C4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="42">
+        <v>2</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
-        <v>2</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="52" t="s">
-        <v>173</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="40" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
-        <v>157</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="78" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>1</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="54">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="42">
         <v>2</v>
       </c>
-      <c r="B52" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>3</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="52" t="s">
-        <v>173</v>
+      <c r="B59" s="40" t="s">
+        <v>153</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="53"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D60" s="41"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="53"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="41"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>4</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C62" s="6"/>
-      <c r="D62" s="53"/>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D62" s="41"/>
+    </row>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="28" t="s">
-        <v>157</v>
+      <c r="B63" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="99" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="99"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="D64" s="80"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="53"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="41"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C66" s="6"/>
-      <c r="D66" s="53"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="41"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="99" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="D67" s="80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="99"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="D68" s="80"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="99"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="D69" s="80"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" s="99"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="D70" s="80"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>6</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
-      <c r="B73" s="52"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="98" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" s="98"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="D74" s="79"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B75" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D75" s="98"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="79"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B76" s="6" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D76" s="98"/>
+        <v>159</v>
+      </c>
+      <c r="D76" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/IT_FoodNow_Schedule.xlsx
+++ b/IT_FoodNow_Schedule.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HUFI_IT_SYSTEM_TECHNOLOGY\IT_FOODNOW_IMAGE\xxamp\htdocs\FoodNow\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11745739-4E42-41B8-B1C9-23E6CF4E1C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="4" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="280">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -894,11 +900,14 @@
   <si>
     <t>Khách hàng thêm cửa hàng vào danh sách các cửa hàng yêu thích</t>
   </si>
+  <si>
+    <t>Cập nhật món ăn, giá, hình ảnh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1268,7 +1277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1402,6 +1411,54 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1420,35 +1477,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1474,33 +1510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,7 +1554,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1598,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1642,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1686,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1720,7 +1730,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1774,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1818,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1862,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1906,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1950,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1994,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2038,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2082,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,39 +2366,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="139.109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="83.88671875" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="27"/>
+    <col min="1" max="1" width="6.85546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="139.140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="83.85546875" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="58.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -2398,7 +2408,7 @@
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" s="30" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -2423,15 +2433,15 @@
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2444,17 +2454,17 @@
       <c r="D4" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="64">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="67" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -2464,24 +2474,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
-      <c r="B6" s="63"/>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="72"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="64"/>
-      <c r="B7" s="63"/>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="36" t="s">
         <v>91</v>
       </c>
@@ -2489,9 +2499,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64"/>
-      <c r="B8" s="63"/>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="72"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="36" t="s">
         <v>63</v>
       </c>
@@ -2499,9 +2509,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
-      <c r="B9" s="63"/>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="72"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="36" t="s">
         <v>61</v>
       </c>
@@ -2509,9 +2519,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64"/>
-      <c r="B10" s="63"/>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="72"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="36" t="s">
         <v>64</v>
       </c>
@@ -2519,9 +2529,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
-      <c r="B11" s="63"/>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="72"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="36" t="s">
         <v>62</v>
       </c>
@@ -2529,7 +2539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>3</v>
       </c>
@@ -2546,7 +2556,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
       <c r="B13" s="35" t="s">
         <v>53</v>
@@ -2559,21 +2569,21 @@
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="64">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="72">
         <v>4</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
-      <c r="B15" s="63"/>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="70"/>
       <c r="D15" s="35" t="s">
         <v>266</v>
@@ -2582,98 +2592,98 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="63"/>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="70"/>
       <c r="D16" s="35" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="66"/>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="62">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78">
         <v>5</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="81"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="81"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="78"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="69"/>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="68">
         <v>6</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="82"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="72"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="72"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="83"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69"/>
       <c r="B25" s="70"/>
-      <c r="C25" s="83"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="72"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="69"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="83"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="35" t="s">
         <v>70</v>
       </c>
@@ -2681,10 +2691,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="69"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="83"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="35" t="s">
         <v>72</v>
       </c>
@@ -2692,42 +2702,42 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="62">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78">
         <v>7</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="84" t="s">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="78"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="57" t="s">
         <v>241</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="78"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="37"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="78"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="37"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>8</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>9</v>
       </c>
@@ -2754,7 +2764,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>10</v>
       </c>
@@ -2769,7 +2779,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>11</v>
       </c>
@@ -2784,7 +2794,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>12</v>
       </c>
@@ -2799,22 +2809,22 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="59" t="s">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
-    </row>
-    <row r="39" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="85">
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+    </row>
+    <row r="39" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58">
         <v>1</v>
       </c>
       <c r="B39" s="53" t="s">
@@ -2825,8 +2835,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="86">
+    <row r="40" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="59">
         <v>2</v>
       </c>
       <c r="B40" s="53" t="s">
@@ -2836,9 +2846,12 @@
       <c r="D40" s="37" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="85">
+      <c r="E40" s="90" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="58">
         <v>3</v>
       </c>
       <c r="B41" s="53" t="s">
@@ -2849,8 +2862,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="86">
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59">
         <v>4</v>
       </c>
       <c r="B42" s="53" t="s">
@@ -2861,20 +2874,20 @@
         <v>263</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="85">
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="58">
         <v>5</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="60" t="s">
         <v>247</v>
       </c>
       <c r="C43" s="35"/>
-      <c r="D43" s="87" t="s">
+      <c r="D43" s="60" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="86">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="59">
         <v>6</v>
       </c>
       <c r="B44" s="53" t="s">
@@ -2885,42 +2898,42 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="59" t="s">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="85">
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="58">
         <v>1</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="65"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="37" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="85"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="87" t="s">
+    <row r="48" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="60" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="85">
+    <row r="49" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="58">
         <v>2</v>
       </c>
       <c r="B49" s="37" t="s">
@@ -2931,8 +2944,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="85">
+    <row r="50" spans="1:4" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58">
         <v>3</v>
       </c>
       <c r="B50" s="37" t="s">
@@ -2943,8 +2956,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="49.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="85">
+    <row r="51" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="58">
         <v>4</v>
       </c>
       <c r="B51" s="37" t="s">
@@ -2955,8 +2968,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="85">
+    <row r="52" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58">
         <v>5</v>
       </c>
       <c r="B52" s="37" t="s">
@@ -2967,11 +2980,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="85">
+    <row r="53" spans="1:4" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="58">
         <v>6</v>
       </c>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="60" t="s">
         <v>246</v>
       </c>
       <c r="C53" s="35"/>
@@ -2979,11 +2992,11 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="85">
+    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="58">
         <v>7</v>
       </c>
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="60" t="s">
         <v>247</v>
       </c>
       <c r="C54" s="35"/>
@@ -2991,30 +3004,30 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="85">
+    <row r="55" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="58">
         <v>8</v>
       </c>
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="60" t="s">
         <v>257</v>
       </c>
       <c r="C55" s="35"/>
-      <c r="D55" s="87" t="s">
+      <c r="D55" s="60" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="85"/>
-      <c r="B56" s="87" t="s">
+    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="58"/>
+      <c r="B56" s="60" t="s">
         <v>269</v>
       </c>
       <c r="C56" s="35"/>
-      <c r="D56" s="87" t="s">
+      <c r="D56" s="60" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="85">
+    <row r="57" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="58">
         <v>9</v>
       </c>
       <c r="B57" s="37" t="s">
@@ -3025,13 +3038,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
@@ -3039,6 +3052,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A1:E1"/>
@@ -3050,17 +3074,6 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3068,7 +3081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A142"/>
   <sheetViews>
@@ -3076,74 +3089,74 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
     </row>
-    <row r="41" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="121" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>81</v>
       </c>
@@ -3156,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3164,16 +3177,16 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21"/>
-    <col min="2" max="2" width="43.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="21"/>
+    <col min="2" max="2" width="43.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
@@ -3190,7 +3203,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -3207,7 +3220,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -3224,7 +3237,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -3241,7 +3254,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -3275,7 +3288,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -3292,7 +3305,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -3309,7 +3322,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -3326,7 +3339,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -3343,7 +3356,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -3360,7 +3373,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -3377,7 +3390,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -3394,7 +3407,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -3411,7 +3424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -3420,7 +3433,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -3429,7 +3442,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -3438,7 +3451,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -3447,7 +3460,7 @@
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -3463,7 +3476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L65"/>
   <sheetViews>
@@ -3471,20 +3484,20 @@
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="103.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
@@ -3495,14 +3508,14 @@
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -3510,97 +3523,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="77"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="86"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="77"/>
-    </row>
-    <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C8" s="86"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="77"/>
-    </row>
-    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75" t="s">
+      <c r="C9" s="86"/>
+    </row>
+    <row r="11" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="77"/>
-    </row>
-    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="86"/>
+    </row>
+    <row r="15" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="77"/>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C15" s="86"/>
+    </row>
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="77"/>
-    </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="C16" s="86"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
@@ -3608,52 +3621,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="86" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="77"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C21" s="86"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="77"/>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="86"/>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="77"/>
-    </row>
-    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75" t="s">
+      <c r="C23" s="86"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
@@ -3661,17 +3674,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>2</v>
       </c>
@@ -3682,17 +3695,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3700,7 +3713,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3708,7 +3721,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3722,7 +3735,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3739,7 +3752,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -3759,7 +3772,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -3770,7 +3783,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -3778,7 +3791,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3786,7 +3799,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>9</v>
       </c>
@@ -3794,7 +3807,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10</v>
       </c>
@@ -3802,7 +3815,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -3813,22 +3826,22 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="44" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="44" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="44" t="s">
         <v>216</v>
       </c>
@@ -3836,7 +3849,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>217</v>
       </c>
@@ -3844,22 +3857,22 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="48" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>226</v>
       </c>
@@ -3867,57 +3880,57 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="44" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="51" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="52" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>240</v>
       </c>
@@ -3940,28 +3953,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:D76"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C15" sqref="A15:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="112" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3972,23 +3985,23 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="C4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -4016,7 +4029,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>135</v>
       </c>
@@ -4027,7 +4040,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -4038,7 +4051,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4049,7 +4062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -4060,14 +4073,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4078,17 +4091,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4099,7 +4112,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4110,7 +4123,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4124,7 +4137,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -4135,14 +4148,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4153,17 +4166,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>2</v>
       </c>
@@ -4175,7 +4188,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>152</v>
       </c>
@@ -4186,7 +4199,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>153</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>161</v>
       </c>
@@ -4205,7 +4218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>162</v>
       </c>
@@ -4213,7 +4226,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4221,7 +4234,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
         <v>153</v>
       </c>
@@ -4229,7 +4242,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>170</v>
       </c>
@@ -4237,7 +4250,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -4245,7 +4258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
         <v>137</v>
       </c>
@@ -4253,7 +4266,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>173</v>
       </c>
@@ -4261,7 +4274,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -4269,7 +4282,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>152</v>
       </c>
@@ -4277,7 +4290,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>153</v>
       </c>
@@ -4285,7 +4298,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -4293,7 +4306,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>157</v>
       </c>
@@ -4301,7 +4314,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>158</v>
       </c>
@@ -4309,14 +4322,14 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="78" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>1</v>
       </c>
@@ -4328,7 +4341,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
@@ -4336,7 +4349,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
@@ -4344,7 +4357,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>2</v>
       </c>
@@ -4356,7 +4369,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
         <v>152</v>
@@ -4366,7 +4379,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
         <v>153</v>
@@ -4378,7 +4391,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>161</v>
@@ -4388,7 +4401,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
         <v>162</v>
@@ -4398,13 +4411,13 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -4414,7 +4427,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="40" t="s">
         <v>153</v>
@@ -4426,7 +4439,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>170</v>
@@ -4436,13 +4449,13 @@
       </c>
       <c r="D60" s="41"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="41"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>4</v>
       </c>
@@ -4452,7 +4465,7 @@
       <c r="C62" s="6"/>
       <c r="D62" s="41"/>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="23" t="s">
         <v>137</v>
@@ -4460,11 +4473,11 @@
       <c r="C63" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="89" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>173</v>
@@ -4472,15 +4485,15 @@
       <c r="C64" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="80"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="89"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="41"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>5</v>
       </c>
@@ -4490,7 +4503,7 @@
       <c r="C66" s="6"/>
       <c r="D66" s="41"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>176</v>
@@ -4498,11 +4511,11 @@
       <c r="C67" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D67" s="80" t="s">
+      <c r="D67" s="89" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" t="s">
         <v>148</v>
@@ -4510,9 +4523,9 @@
       <c r="C68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D68" s="80"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="89"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>152</v>
@@ -4520,21 +4533,21 @@
       <c r="C69" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="80"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="89"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="80"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="89"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>6</v>
       </c>
@@ -4544,15 +4557,15 @@
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="40"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="79" t="s">
+      <c r="D73" s="88" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" t="s">
         <v>178</v>
@@ -4560,25 +4573,25 @@
       <c r="C74" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D74" s="79"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="88"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="79"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="88"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="79"/>
+      <c r="D76" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="7">
